--- a/Data/20231005_overview_all_charts_datawrapper.xlsx
+++ b/Data/20231005_overview_all_charts_datawrapper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\sda_eidgenoessische_wahlen_datafeed\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/sda_eidgenoessische_wahlen_datafeed/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489639AA-1ED6-4A8F-AEA9-D28B53AB4801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{489639AA-1ED6-4A8F-AEA9-D28B53AB4801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF32A9EE-75D4-4D2B-A976-252D20B29166}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz Live" sheetId="2" r:id="rId1"/>
@@ -8512,10 +8512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -8532,10 +8535,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8841,17 +8840,17 @@
       <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2264</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2270</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2271</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2282</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2283</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2284</v>
       </c>
@@ -9047,18 +9046,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A119928F-E260-4FA2-BD80-3302D237A18E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -9407,20 +9406,20 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2299</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2299</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2299</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2299</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2320</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2299</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2299</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2299</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2320</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2320</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2299</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2299</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2361</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2320</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2299</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2320</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2299</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2299</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2299</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2299</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2299</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2299</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2299</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2361</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2299</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2320</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2299</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2320</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2299</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2299</v>
       </c>
@@ -10236,22 +10235,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -10322,14 +10321,14 @@
       <c r="F3" t="s">
         <v>864</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2213</v>
       </c>
       <c r="H3" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2452</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -10667,7 +10666,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2452</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -11031,7 +11030,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -11265,7 +11264,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -11291,7 +11290,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2452</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -11395,7 +11394,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -11525,7 +11524,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -11551,7 +11550,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -11577,7 +11576,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -11681,7 +11680,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -11707,7 +11706,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -11759,7 +11758,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -11811,7 +11810,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2452</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -11915,7 +11914,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -12019,7 +12018,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -12123,7 +12122,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -12149,7 +12148,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -12227,7 +12226,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2452</v>
       </c>
@@ -12305,7 +12304,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -12331,7 +12330,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -12383,7 +12382,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -12409,7 +12408,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -12461,7 +12460,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -12487,7 +12486,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -12539,7 +12538,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -12617,7 +12616,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -12669,7 +12668,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -12695,7 +12694,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2452</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -12903,7 +12902,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -12981,7 +12980,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -13007,7 +13006,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -13085,7 +13084,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -13137,7 +13136,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2452</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -13267,7 +13266,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -13319,7 +13318,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -13683,7 +13682,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2452</v>
       </c>
@@ -13709,7 +13708,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -13735,7 +13734,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -13761,7 +13760,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -13787,7 +13786,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -13943,7 +13942,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -14099,7 +14098,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -14125,7 +14124,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -14151,7 +14150,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>2452</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -14203,7 +14202,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -14229,7 +14228,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -14255,7 +14254,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -14281,7 +14280,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -14359,7 +14358,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -14463,7 +14462,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -14567,7 +14566,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2452</v>
       </c>
@@ -14645,7 +14644,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -14671,7 +14670,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -14697,7 +14696,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -14801,7 +14800,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -14827,7 +14826,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -14853,7 +14852,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -14905,7 +14904,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -14957,7 +14956,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -14983,7 +14982,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -15061,7 +15060,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>2452</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -15191,7 +15190,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -15269,7 +15268,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -15425,7 +15424,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -15451,7 +15450,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -15503,7 +15502,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -15529,7 +15528,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -15555,7 +15554,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>2452</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -15607,7 +15606,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -15633,7 +15632,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -15711,7 +15710,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15736,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -15789,7 +15788,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -15867,7 +15866,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -15919,7 +15918,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -15971,7 +15970,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>2452</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -16075,7 +16074,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -16101,7 +16100,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -16153,7 +16152,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -16179,7 +16178,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -16205,7 +16204,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -16257,7 +16256,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -16335,7 +16334,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -16361,7 +16360,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -16439,7 +16438,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -16491,7 +16490,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>2452</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -16569,7 +16568,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -16647,7 +16646,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -16699,7 +16698,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -16725,7 +16724,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -16777,7 +16776,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -16803,7 +16802,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -16829,7 +16828,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -16881,7 +16880,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -16907,7 +16906,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>2452</v>
       </c>
@@ -16985,7 +16984,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -17011,7 +17010,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -17037,7 +17036,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -17089,7 +17088,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>18</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -17271,7 +17270,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -17297,7 +17296,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -17323,7 +17322,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -17349,7 +17348,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -17375,7 +17374,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -17401,7 +17400,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -17427,7 +17426,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>2452</v>
       </c>
@@ -17453,7 +17452,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -17479,7 +17478,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -17505,7 +17504,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -17531,7 +17530,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -17609,7 +17608,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -17635,7 +17634,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -17687,7 +17686,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -17713,7 +17712,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -17765,7 +17764,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -17791,7 +17790,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -17817,7 +17816,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>2452</v>
       </c>
@@ -17921,7 +17920,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -17947,7 +17946,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -17973,7 +17972,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -17999,7 +17998,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -18051,7 +18050,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>18</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>23</v>
       </c>
@@ -18103,7 +18102,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>22</v>
       </c>
@@ -18129,7 +18128,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -18181,7 +18180,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -18207,7 +18206,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -18259,7 +18258,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -18285,7 +18284,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -18311,7 +18310,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -18337,7 +18336,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>2452</v>
       </c>
@@ -18389,7 +18388,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -18415,7 +18414,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -18441,7 +18440,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -18493,7 +18492,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -18519,7 +18518,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>18</v>
       </c>
@@ -18545,7 +18544,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>23</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -18623,7 +18622,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>19</v>
       </c>
@@ -18649,7 +18648,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>20</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -18727,7 +18726,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -18779,7 +18778,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -18805,7 +18804,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>10</v>
       </c>
@@ -18831,7 +18830,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>2452</v>
       </c>
@@ -18857,7 +18856,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -18883,7 +18882,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>13</v>
       </c>
@@ -18961,7 +18960,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -18987,7 +18986,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -19013,7 +19012,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -19039,7 +19038,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>22</v>
       </c>
@@ -19065,7 +19064,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -19091,7 +19090,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>19</v>
       </c>
@@ -19117,7 +19116,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>20</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -19169,7 +19168,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -19221,7 +19220,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>10</v>
       </c>
@@ -19299,7 +19298,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>2452</v>
       </c>
@@ -19325,7 +19324,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -19351,7 +19350,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -19377,7 +19376,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -19403,7 +19402,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -19429,7 +19428,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -19455,7 +19454,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>18</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>23</v>
       </c>
@@ -19507,7 +19506,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>22</v>
       </c>
@@ -19533,7 +19532,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>21</v>
       </c>
@@ -19559,7 +19558,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>19</v>
       </c>
@@ -19585,7 +19584,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -19611,7 +19610,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -19637,7 +19636,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -19663,7 +19662,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -19689,7 +19688,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -19767,7 +19766,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2452</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -19819,7 +19818,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>16</v>
       </c>
@@ -19845,7 +19844,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>15</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -19897,7 +19896,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -19949,7 +19948,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>23</v>
       </c>
@@ -19975,7 +19974,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>22</v>
       </c>
@@ -20001,7 +20000,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>21</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>19</v>
       </c>
@@ -20053,7 +20052,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>20</v>
       </c>
@@ -20079,7 +20078,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>24</v>
       </c>
@@ -20105,7 +20104,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -20131,7 +20130,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -20157,7 +20156,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -20183,7 +20182,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -20209,7 +20208,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>10</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>2452</v>
       </c>
@@ -20261,7 +20260,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -20287,7 +20286,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>15</v>
       </c>
@@ -20339,7 +20338,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -20365,7 +20364,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -20391,7 +20390,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>18</v>
       </c>
@@ -20417,7 +20416,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -20443,7 +20442,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>22</v>
       </c>
@@ -20469,7 +20468,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>21</v>
       </c>
@@ -20495,7 +20494,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -20521,7 +20520,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>20</v>
       </c>
@@ -20547,7 +20546,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>24</v>
       </c>
@@ -20573,7 +20572,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -20651,7 +20650,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -20677,7 +20676,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -20703,7 +20702,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>2452</v>
       </c>
@@ -20729,7 +20728,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>17</v>
       </c>
@@ -20755,7 +20754,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -20781,7 +20780,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>15</v>
       </c>
@@ -20807,7 +20806,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>13</v>
       </c>
@@ -20833,7 +20832,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>14</v>
       </c>
@@ -20859,7 +20858,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>18</v>
       </c>
@@ -20885,7 +20884,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>23</v>
       </c>
@@ -20911,7 +20910,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -20937,7 +20936,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>21</v>
       </c>
@@ -20963,7 +20962,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>19</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>20</v>
       </c>
@@ -21015,7 +21014,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>24</v>
       </c>
@@ -21041,7 +21040,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -21093,7 +21092,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -21119,7 +21118,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -21145,7 +21144,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>10</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>2452</v>
       </c>
@@ -21197,7 +21196,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>16</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>15</v>
       </c>
@@ -21275,7 +21274,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>14</v>
       </c>
@@ -21327,7 +21326,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>18</v>
       </c>
@@ -21353,7 +21352,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>23</v>
       </c>
@@ -21379,7 +21378,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -21405,7 +21404,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>21</v>
       </c>
@@ -21431,7 +21430,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>19</v>
       </c>
@@ -21457,7 +21456,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>20</v>
       </c>
@@ -21483,7 +21482,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>24</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -21535,7 +21534,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>12</v>
       </c>
@@ -21561,7 +21560,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -21587,7 +21586,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -21613,7 +21612,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>10</v>
       </c>
@@ -21639,7 +21638,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>2452</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>17</v>
       </c>
@@ -21691,7 +21690,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>16</v>
       </c>
@@ -21717,7 +21716,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -21743,7 +21742,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -21769,7 +21768,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -21795,7 +21794,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>18</v>
       </c>
@@ -21821,7 +21820,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>23</v>
       </c>
@@ -21847,7 +21846,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>22</v>
       </c>
@@ -21873,7 +21872,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>21</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -21925,7 +21924,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>20</v>
       </c>
@@ -21951,7 +21950,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>24</v>
       </c>
@@ -21977,7 +21976,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -22003,7 +22002,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -22055,7 +22054,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>10</v>
       </c>
@@ -22107,7 +22106,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>2452</v>
       </c>
@@ -22133,7 +22132,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>17</v>
       </c>
@@ -22159,7 +22158,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>16</v>
       </c>
@@ -22185,7 +22184,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -22211,7 +22210,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -22237,7 +22236,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>18</v>
       </c>
@@ -22289,7 +22288,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>23</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>22</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>21</v>
       </c>
@@ -22367,7 +22366,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>19</v>
       </c>
@@ -22393,7 +22392,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>20</v>
       </c>
@@ -22419,7 +22418,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>24</v>
       </c>
